--- a/inputs/ureninfo.xlsx
+++ b/inputs/ureninfo.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="5">
   <si>
     <t>uur</t>
   </si>
@@ -29,15 +29,37 @@
   <si>
     <t>eindtijd</t>
   </si>
+  <si>
+    <t>MA|DI|WO|DO|VR</t>
+  </si>
+  <si>
+    <t>dagen</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -60,14 +82,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -400,12 +426,13 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="8.1640625" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -418,6 +445,9 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
@@ -429,6 +459,9 @@
       <c r="C2" s="1">
         <v>0.38541666666666669</v>
       </c>
+      <c r="D2" t="s">
+        <v>3</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
     </row>
@@ -442,6 +475,9 @@
       <c r="C3" s="1">
         <v>0.41319444444444442</v>
       </c>
+      <c r="D3" t="s">
+        <v>3</v>
+      </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
     </row>
@@ -454,6 +490,9 @@
       </c>
       <c r="C4" s="1">
         <v>0.44097222222222227</v>
+      </c>
+      <c r="D4" t="s">
+        <v>3</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -468,6 +507,9 @@
       <c r="C5" s="1">
         <v>0.4861111111111111</v>
       </c>
+      <c r="D5" t="s">
+        <v>3</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
     </row>
@@ -481,6 +523,9 @@
       <c r="C6" s="1">
         <v>0.51388888888888895</v>
       </c>
+      <c r="D6" t="s">
+        <v>3</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
     </row>
@@ -494,6 +539,9 @@
       <c r="C7" s="1">
         <v>0.54166666666666663</v>
       </c>
+      <c r="D7" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
@@ -505,6 +553,9 @@
       <c r="C8" s="1">
         <v>0.59027777777777779</v>
       </c>
+      <c r="D8" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
@@ -516,6 +567,9 @@
       <c r="C9" s="1">
         <v>0.61805555555555558</v>
       </c>
+      <c r="D9" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
@@ -527,6 +581,9 @@
       <c r="C10" s="1">
         <v>0.64583333333333337</v>
       </c>
+      <c r="D10" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
@@ -538,9 +595,13 @@
       <c r="C11" s="1">
         <v>0.67361111111111116</v>
       </c>
+      <c r="D11" t="s">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
